--- a/R_C14_DADA2/phyloseq/paper_petB_primers/figures_petb compare_2.0/subclade_summary_sorted_3.0.xlsx
+++ b/R_C14_DADA2/phyloseq/paper_petB_primers/figures_petb compare_2.0/subclade_summary_sorted_3.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deniseong/Documents/GitHub/TAN1810_C14/R_C14_DADA2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deniseong/Documents/GitHub/TAN1810_C14/R_C14_DADA2/phyloseq/paper_petB_primers/figures_petb compare_2.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67FEA14-1048-C545-A840-AFB65C5C4FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F1E203-B83D-5F47-89D6-217710E4C03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="69880" yWindow="3860" windowWidth="14620" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Clade</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Subclade</t>
   </si>
   <si>
-    <t>ASV</t>
-  </si>
-  <si>
     <t>mean</t>
   </si>
   <si>
@@ -87,6 +84,12 @@
   </si>
   <si>
     <t>EnvB</t>
+  </si>
+  <si>
+    <t>% of reads</t>
+  </si>
+  <si>
+    <t>No. of ASVs</t>
   </si>
 </sst>
 </file>
@@ -130,12 +133,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,246 +480,260 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>413</v>
-      </c>
-      <c r="E2">
-        <v>39.346849381300864</v>
-      </c>
-      <c r="F2">
-        <v>78.824286633769574</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>30.385634279170109</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>274</v>
+        <v>413</v>
       </c>
       <c r="E3">
-        <v>31.32762750127764</v>
+        <v>39.346849381300864</v>
       </c>
       <c r="F3">
-        <v>46.379983691687052</v>
+        <v>78.824286633769574</v>
       </c>
       <c r="G3">
-        <v>12.835923413754619</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>9.8214497306616124</v>
+        <v>30.385634279170109</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="E4">
-        <v>25.468259135829641</v>
+        <v>31.32762750127764</v>
       </c>
       <c r="F4">
-        <v>78.764859877258488</v>
+        <v>46.379983691687052</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>12.835923413754619</v>
       </c>
       <c r="H4">
-        <v>30.036381006191629</v>
+        <v>9.8214497306616124</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>37</v>
+        <v>244</v>
       </c>
       <c r="E5">
-        <v>3.841525504893871</v>
+        <v>25.468259135829641</v>
       </c>
       <c r="F5">
-        <v>16.835464766972791</v>
+        <v>78.764859877258488</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5.5456397803172974</v>
+        <v>30.036381006191629</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6">
-        <v>24</v>
-      </c>
-      <c r="E6" s="2">
-        <v>8.10696292011308E-3</v>
+        <v>37</v>
+      </c>
+      <c r="E6">
+        <v>3.841525504893871</v>
       </c>
       <c r="F6">
-        <v>5.149993562508047E-2</v>
+        <v>16.835464766972791</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.348334682005585E-2</v>
+        <v>5.5456397803172974</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2">
-        <v>3.3382863263446828E-3</v>
+        <v>8.10696292011308E-3</v>
       </c>
       <c r="F7">
-        <v>4.721637979138945E-2</v>
+        <v>5.149993562508047E-2</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.1361700453852021E-2</v>
+        <v>1.348334682005585E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" s="2">
-        <v>2.1467519642780499E-3</v>
+        <v>3.3382863263446828E-3</v>
       </c>
       <c r="F8">
-        <v>3.8641535357004847E-2</v>
+        <v>4.721637979138945E-2</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8" s="2">
-        <v>9.1078972287992905E-3</v>
+      <c r="H8">
+        <v>1.1361700453852021E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E9" s="2">
-        <v>2.146475487249935E-3</v>
+        <v>2.1467519642780499E-3</v>
       </c>
       <c r="F9">
-        <v>3.863655877049884E-2</v>
+        <v>3.8641535357004847E-2</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" s="2">
+        <v>9.1078972287992905E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2.146475487249935E-3</v>
+      </c>
+      <c r="F10">
+        <v>3.863655877049884E-2</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
         <v>9.1067242361107682E-3</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>